--- a/8/5/2/1/3/Trimestral 2008 a 2021 - Trimestral.xlsx
+++ b/8/5/2/1/3/Trimestral 2008 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM54"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6965,40 +6968,40 @@
         <v>91</v>
       </c>
       <c r="B54">
-        <v>200.2</v>
+        <v>205.8</v>
       </c>
       <c r="C54">
-        <v>231.4</v>
+        <v>238.2</v>
       </c>
       <c r="D54">
-        <v>110</v>
+        <v>124.7</v>
       </c>
       <c r="E54">
-        <v>928.4</v>
+        <v>964.5</v>
       </c>
       <c r="F54">
-        <v>116.3</v>
+        <v>109.5</v>
       </c>
       <c r="G54">
-        <v>58.2</v>
+        <v>58.7</v>
       </c>
       <c r="H54">
-        <v>117.7</v>
+        <v>120</v>
       </c>
       <c r="I54">
-        <v>118.5</v>
+        <v>121.1</v>
       </c>
       <c r="J54">
-        <v>160</v>
+        <v>164.5</v>
       </c>
       <c r="K54">
-        <v>41.3</v>
+        <v>42</v>
       </c>
       <c r="L54">
-        <v>100.1</v>
+        <v>101.4</v>
       </c>
       <c r="M54">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="N54">
         <v>126.9</v>
@@ -7007,16 +7010,16 @@
         <v>56.6</v>
       </c>
       <c r="P54">
-        <v>154.9</v>
+        <v>155.2</v>
       </c>
       <c r="Q54">
-        <v>90.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R54">
-        <v>118</v>
+        <v>118.3</v>
       </c>
       <c r="S54">
-        <v>146.9</v>
+        <v>147.7</v>
       </c>
       <c r="T54">
         <v>85.59999999999999</v>
@@ -7034,10 +7037,10 @@
         <v>46.4</v>
       </c>
       <c r="Y54">
-        <v>92.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="Z54">
-        <v>86.2</v>
+        <v>84.7</v>
       </c>
       <c r="AA54">
         <v>108</v>
@@ -7049,25 +7052,25 @@
         <v>74.5</v>
       </c>
       <c r="AD54">
-        <v>74</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="AE54">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="AF54">
-        <v>95.3</v>
+        <v>95.7</v>
       </c>
       <c r="AG54">
-        <v>135.6</v>
+        <v>137.8</v>
       </c>
       <c r="AH54">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AI54">
-        <v>83</v>
+        <v>81.8</v>
       </c>
       <c r="AJ54">
-        <v>69.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="AK54">
         <v>55.2</v>
@@ -7076,7 +7079,126 @@
         <v>70.40000000000001</v>
       </c>
       <c r="AM54">
-        <v>114.2</v>
+        <v>115.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>99.2</v>
+      </c>
+      <c r="C55">
+        <v>99</v>
+      </c>
+      <c r="D55">
+        <v>105.3</v>
+      </c>
+      <c r="E55">
+        <v>32.5</v>
+      </c>
+      <c r="F55">
+        <v>113.5</v>
+      </c>
+      <c r="G55">
+        <v>99.8</v>
+      </c>
+      <c r="H55">
+        <v>136.4</v>
+      </c>
+      <c r="I55">
+        <v>136.5</v>
+      </c>
+      <c r="J55">
+        <v>189</v>
+      </c>
+      <c r="K55">
+        <v>58.1</v>
+      </c>
+      <c r="L55">
+        <v>108.7</v>
+      </c>
+      <c r="M55">
+        <v>134.5</v>
+      </c>
+      <c r="N55">
+        <v>176.5</v>
+      </c>
+      <c r="O55">
+        <v>60.4</v>
+      </c>
+      <c r="P55">
+        <v>179.1</v>
+      </c>
+      <c r="Q55">
+        <v>101.4</v>
+      </c>
+      <c r="R55">
+        <v>128.2</v>
+      </c>
+      <c r="S55">
+        <v>131.7</v>
+      </c>
+      <c r="T55">
+        <v>108.2</v>
+      </c>
+      <c r="U55">
+        <v>133.7</v>
+      </c>
+      <c r="V55">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="W55">
+        <v>108</v>
+      </c>
+      <c r="X55">
+        <v>41.5</v>
+      </c>
+      <c r="Y55">
+        <v>108.8</v>
+      </c>
+      <c r="Z55">
+        <v>107.5</v>
+      </c>
+      <c r="AA55">
+        <v>114.4</v>
+      </c>
+      <c r="AB55">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="AC55">
+        <v>89.7</v>
+      </c>
+      <c r="AD55">
+        <v>94</v>
+      </c>
+      <c r="AE55">
+        <v>72.5</v>
+      </c>
+      <c r="AF55">
+        <v>114.6</v>
+      </c>
+      <c r="AG55">
+        <v>176.3</v>
+      </c>
+      <c r="AH55">
+        <v>99.5</v>
+      </c>
+      <c r="AI55">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="AJ55">
+        <v>90.2</v>
+      </c>
+      <c r="AK55">
+        <v>56.6</v>
+      </c>
+      <c r="AL55">
+        <v>65.5</v>
+      </c>
+      <c r="AM55">
+        <v>121.1</v>
       </c>
     </row>
   </sheetData>
